--- a/module classe projet/ModulePrincipal/Parametres.xlsx
+++ b/module classe projet/ModulePrincipal/Parametres.xlsx
@@ -19,6 +19,81 @@
     <t xml:space="preserve">Prestation de cours </t>
   </si>
   <si>
+    <t>Cout d'entretien</t>
+  </si>
+  <si>
+    <t>Maintenance (MAD)</t>
+  </si>
+  <si>
+    <t>Cout Maintenance=0</t>
+  </si>
+  <si>
+    <t>Horizon=0</t>
+  </si>
+  <si>
+    <t>Horizon=1</t>
+  </si>
+  <si>
+    <t>Horizon=2</t>
+  </si>
+  <si>
+    <t>Horizon=3</t>
+  </si>
+  <si>
+    <t>Horizon=4</t>
+  </si>
+  <si>
+    <t>Cout d'energie, électricité</t>
+  </si>
+  <si>
+    <t>Nombre de postes de consommation électriques</t>
+  </si>
+  <si>
+    <t>Poste=0</t>
+  </si>
+  <si>
+    <t>Poste=1</t>
+  </si>
+  <si>
+    <t>Poste=2</t>
+  </si>
+  <si>
+    <t>Poste=3</t>
+  </si>
+  <si>
+    <t>Poste=4</t>
+  </si>
+  <si>
+    <t>Poste=5</t>
+  </si>
+  <si>
+    <t>Consommation Electrique par poste ( Kwh )</t>
+  </si>
+  <si>
+    <t>Consommation Electrique par poste ( MAD )</t>
+  </si>
+  <si>
+    <t>Cout de location, espace</t>
+  </si>
+  <si>
+    <t>Nombre espaces loués</t>
+  </si>
+  <si>
+    <t>Espace=0</t>
+  </si>
+  <si>
+    <t>Espace=1</t>
+  </si>
+  <si>
+    <t>Espace=2</t>
+  </si>
+  <si>
+    <t>Espace=3</t>
+  </si>
+  <si>
+    <t>Espace=4</t>
+  </si>
+  <si>
     <t>Couts d'assurance</t>
   </si>
   <si>
@@ -26,81 +101,6 @@
   </si>
   <si>
     <t>Cout Assurances=0</t>
-  </si>
-  <si>
-    <t>Horizon=0</t>
-  </si>
-  <si>
-    <t>Horizon=1</t>
-  </si>
-  <si>
-    <t>Horizon=2</t>
-  </si>
-  <si>
-    <t>Horizon=3</t>
-  </si>
-  <si>
-    <t>Horizon=4</t>
-  </si>
-  <si>
-    <t>Cout de location, espace</t>
-  </si>
-  <si>
-    <t>Nombre espaces loués</t>
-  </si>
-  <si>
-    <t>Espace=0</t>
-  </si>
-  <si>
-    <t>Espace=1</t>
-  </si>
-  <si>
-    <t>Espace=2</t>
-  </si>
-  <si>
-    <t>Espace=3</t>
-  </si>
-  <si>
-    <t>Espace=4</t>
-  </si>
-  <si>
-    <t>Cout d'entretien</t>
-  </si>
-  <si>
-    <t>Maintenance (MAD)</t>
-  </si>
-  <si>
-    <t>Cout Maintenance=0</t>
-  </si>
-  <si>
-    <t>Cout d'energie, électricité</t>
-  </si>
-  <si>
-    <t>Nombre de postes de consommation électriques</t>
-  </si>
-  <si>
-    <t>Poste=0</t>
-  </si>
-  <si>
-    <t>Poste=1</t>
-  </si>
-  <si>
-    <t>Poste=2</t>
-  </si>
-  <si>
-    <t>Poste=3</t>
-  </si>
-  <si>
-    <t>Poste=4</t>
-  </si>
-  <si>
-    <t>Poste=5</t>
-  </si>
-  <si>
-    <t>Consommation Electrique par poste ( Kwh )</t>
-  </si>
-  <si>
-    <t>Consommation Electrique par poste ( MAD )</t>
   </si>
 </sst>
 </file>
@@ -591,6 +591,9 @@
       <c r="K16" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="L16" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="17" spans="1:12">
       <c r="F17" s="1" t="s">
@@ -611,6 +614,9 @@
       <c r="K17" t="n">
         <v>0</v>
       </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18" spans="1:12">
       <c r="F18" s="1" t="s">
@@ -631,6 +637,9 @@
       <c r="K18" t="n">
         <v>0</v>
       </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19" spans="1:12">
       <c r="F19" s="1" t="s">
@@ -651,6 +660,9 @@
       <c r="K19" t="n">
         <v>0</v>
       </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20" spans="1:12">
       <c r="F20" s="1" t="s">
@@ -671,6 +683,9 @@
       <c r="K20" t="n">
         <v>0</v>
       </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21" spans="1:12">
       <c r="F21" s="1" t="s">
@@ -691,13 +706,12 @@
       <c r="K21" t="n">
         <v>0</v>
       </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22" spans="1:12"/>
-    <row r="23" spans="1:12">
-      <c r="E23" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
+    <row r="23" spans="1:12"/>
     <row r="24" spans="1:12"/>
     <row r="25" spans="1:12"/>
     <row r="26" spans="1:12">
@@ -705,7 +719,22 @@
         <v>17</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>18</v>
+        <v>11</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -715,6 +744,21 @@
       <c r="G27" t="n">
         <v>0</v>
       </c>
+      <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28" spans="1:12">
       <c r="F28" s="1" t="s">
@@ -723,6 +767,21 @@
       <c r="G28" t="n">
         <v>0</v>
       </c>
+      <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29" spans="1:12">
       <c r="F29" s="1" t="s">
@@ -731,6 +790,21 @@
       <c r="G29" t="n">
         <v>0</v>
       </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="30" spans="1:12">
       <c r="F30" s="1" t="s">
@@ -739,6 +813,21 @@
       <c r="G30" t="n">
         <v>0</v>
       </c>
+      <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="31" spans="1:12">
       <c r="F31" s="1" t="s">
@@ -747,36 +836,47 @@
       <c r="G31" t="n">
         <v>0</v>
       </c>
+      <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="32" spans="1:12"/>
-    <row r="33" spans="1:12">
-      <c r="E33" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
+    <row r="33" spans="1:12"/>
     <row r="34" spans="1:12"/>
     <row r="35" spans="1:12"/>
     <row r="36" spans="1:12">
       <c r="F36" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" spans="1:12">
@@ -895,12 +995,16 @@
       </c>
     </row>
     <row r="42" spans="1:12"/>
-    <row r="43" spans="1:12"/>
+    <row r="43" spans="1:12">
+      <c r="E43" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
     <row r="44" spans="1:12"/>
     <row r="45" spans="1:12"/>
     <row r="46" spans="1:12">
       <c r="F46" s="4" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="G46" s="1" t="s">
         <v>21</v>
@@ -916,9 +1020,6 @@
       </c>
       <c r="K46" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="L46" s="1" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="47" spans="1:12">
@@ -940,9 +1041,6 @@
       <c r="K47" t="n">
         <v>0</v>
       </c>
-      <c r="L47" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="48" spans="1:12">
       <c r="F48" s="1" t="s">
@@ -963,9 +1061,6 @@
       <c r="K48" t="n">
         <v>0</v>
       </c>
-      <c r="L48" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="49" spans="1:12">
       <c r="F49" s="1" t="s">
@@ -986,9 +1081,6 @@
       <c r="K49" t="n">
         <v>0</v>
       </c>
-      <c r="L49" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="50" spans="1:12">
       <c r="F50" s="1" t="s">
@@ -1009,9 +1101,6 @@
       <c r="K50" t="n">
         <v>0</v>
       </c>
-      <c r="L50" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="51" spans="1:12">
       <c r="F51" s="1" t="s">
@@ -1032,35 +1121,21 @@
       <c r="K51" t="n">
         <v>0</v>
       </c>
-      <c r="L51" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="52" spans="1:12"/>
-    <row r="53" spans="1:12"/>
+    <row r="53" spans="1:12">
+      <c r="E53" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
     <row r="54" spans="1:12"/>
     <row r="55" spans="1:12"/>
     <row r="56" spans="1:12">
       <c r="F56" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G56" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="G56" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H56" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="I56" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J56" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="K56" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="L56" s="1" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="57" spans="1:12">
@@ -1070,21 +1145,6 @@
       <c r="G57" t="n">
         <v>0</v>
       </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
-      <c r="J57" t="n">
-        <v>0</v>
-      </c>
-      <c r="K57" t="n">
-        <v>0</v>
-      </c>
-      <c r="L57" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="58" spans="1:12">
       <c r="F58" s="1" t="s">
@@ -1093,21 +1153,6 @@
       <c r="G58" t="n">
         <v>0</v>
       </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>0</v>
-      </c>
-      <c r="K58" t="n">
-        <v>0</v>
-      </c>
-      <c r="L58" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="59" spans="1:12">
       <c r="F59" s="1" t="s">
@@ -1116,21 +1161,6 @@
       <c r="G59" t="n">
         <v>0</v>
       </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
-      <c r="J59" t="n">
-        <v>0</v>
-      </c>
-      <c r="K59" t="n">
-        <v>0</v>
-      </c>
-      <c r="L59" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="60" spans="1:12">
       <c r="F60" s="1" t="s">
@@ -1139,42 +1169,12 @@
       <c r="G60" t="n">
         <v>0</v>
       </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
-      <c r="J60" t="n">
-        <v>0</v>
-      </c>
-      <c r="K60" t="n">
-        <v>0</v>
-      </c>
-      <c r="L60" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="61" spans="1:12">
       <c r="F61" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G61" t="n">
-        <v>0</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
-      <c r="J61" t="n">
-        <v>0</v>
-      </c>
-      <c r="K61" t="n">
-        <v>0</v>
-      </c>
-      <c r="L61" t="n">
         <v>0</v>
       </c>
     </row>

--- a/module classe projet/ModulePrincipal/Parametres.xlsx
+++ b/module classe projet/ModulePrincipal/Parametres.xlsx
@@ -7,6 +7,7 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Int couts" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Mar couts" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -14,11 +15,86 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="32">
   <si>
     <t xml:space="preserve">Prestation de cours </t>
   </si>
   <si>
+    <t>Couts d'assurance</t>
+  </si>
+  <si>
+    <t>Autres assurances (MAD)</t>
+  </si>
+  <si>
+    <t>Cout Assurances=0</t>
+  </si>
+  <si>
+    <t>Horizon=0</t>
+  </si>
+  <si>
+    <t>Horizon=1</t>
+  </si>
+  <si>
+    <t>Horizon=2</t>
+  </si>
+  <si>
+    <t>Horizon=3</t>
+  </si>
+  <si>
+    <t>Horizon=4</t>
+  </si>
+  <si>
+    <t>Cout de location, espace</t>
+  </si>
+  <si>
+    <t>Nombre espaces loués</t>
+  </si>
+  <si>
+    <t>Espace=0</t>
+  </si>
+  <si>
+    <t>Espace=1</t>
+  </si>
+  <si>
+    <t>Espace=2</t>
+  </si>
+  <si>
+    <t>Espace=3</t>
+  </si>
+  <si>
+    <t>Espace=4</t>
+  </si>
+  <si>
+    <t>Cout d'energie, électricité</t>
+  </si>
+  <si>
+    <t>Nombre de postes de consommation électriques</t>
+  </si>
+  <si>
+    <t>Poste=0</t>
+  </si>
+  <si>
+    <t>Poste=1</t>
+  </si>
+  <si>
+    <t>Poste=2</t>
+  </si>
+  <si>
+    <t>Poste=3</t>
+  </si>
+  <si>
+    <t>Poste=4</t>
+  </si>
+  <si>
+    <t>Poste=5</t>
+  </si>
+  <si>
+    <t>Consommation Electrique par poste ( Kwh )</t>
+  </si>
+  <si>
+    <t>Consommation Electrique par poste ( MAD )</t>
+  </si>
+  <si>
     <t>Cout d'entretien</t>
   </si>
   <si>
@@ -28,79 +104,13 @@
     <t>Cout Maintenance=0</t>
   </si>
   <si>
-    <t>Horizon=0</t>
-  </si>
-  <si>
-    <t>Horizon=1</t>
-  </si>
-  <si>
-    <t>Horizon=2</t>
-  </si>
-  <si>
-    <t>Horizon=3</t>
-  </si>
-  <si>
-    <t>Horizon=4</t>
-  </si>
-  <si>
-    <t>Cout d'energie, électricité</t>
-  </si>
-  <si>
-    <t>Nombre de postes de consommation électriques</t>
-  </si>
-  <si>
-    <t>Poste=0</t>
-  </si>
-  <si>
-    <t>Poste=1</t>
-  </si>
-  <si>
-    <t>Poste=2</t>
-  </si>
-  <si>
-    <t>Poste=3</t>
-  </si>
-  <si>
-    <t>Poste=4</t>
-  </si>
-  <si>
-    <t>Poste=5</t>
-  </si>
-  <si>
-    <t>Consommation Electrique par poste ( Kwh )</t>
-  </si>
-  <si>
-    <t>Consommation Electrique par poste ( MAD )</t>
-  </si>
-  <si>
-    <t>Cout de location, espace</t>
-  </si>
-  <si>
-    <t>Nombre espaces loués</t>
-  </si>
-  <si>
-    <t>Espace=0</t>
-  </si>
-  <si>
-    <t>Espace=1</t>
-  </si>
-  <si>
-    <t>Espace=2</t>
-  </si>
-  <si>
-    <t>Espace=3</t>
-  </si>
-  <si>
-    <t>Espace=4</t>
-  </si>
-  <si>
-    <t>Couts d'assurance</t>
-  </si>
-  <si>
-    <t>Autres assurances (MAD)</t>
-  </si>
-  <si>
-    <t>Cout Assurances=0</t>
+    <t>Prix de Location</t>
+  </si>
+  <si>
+    <t>Prix du Kwh</t>
+  </si>
+  <si>
+    <t>Cout Kwh=0</t>
   </si>
 </sst>
 </file>
@@ -591,9 +601,6 @@
       <c r="K16" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="L16" s="1" t="s">
-        <v>16</v>
-      </c>
     </row>
     <row r="17" spans="1:12">
       <c r="F17" s="1" t="s">
@@ -614,9 +621,6 @@
       <c r="K17" t="n">
         <v>0</v>
       </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="18" spans="1:12">
       <c r="F18" s="1" t="s">
@@ -637,9 +641,6 @@
       <c r="K18" t="n">
         <v>0</v>
       </c>
-      <c r="L18" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="19" spans="1:12">
       <c r="F19" s="1" t="s">
@@ -660,9 +661,6 @@
       <c r="K19" t="n">
         <v>0</v>
       </c>
-      <c r="L19" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="20" spans="1:12">
       <c r="F20" s="1" t="s">
@@ -683,9 +681,6 @@
       <c r="K20" t="n">
         <v>0</v>
       </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="21" spans="1:12">
       <c r="F21" s="1" t="s">
@@ -706,12 +701,13 @@
       <c r="K21" t="n">
         <v>0</v>
       </c>
-      <c r="L21" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="22" spans="1:12"/>
-    <row r="23" spans="1:12"/>
+    <row r="23" spans="1:12">
+      <c r="E23" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
     <row r="24" spans="1:12"/>
     <row r="25" spans="1:12"/>
     <row r="26" spans="1:12">
@@ -719,22 +715,22 @@
         <v>17</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -858,25 +854,25 @@
     <row r="35" spans="1:12"/>
     <row r="36" spans="1:12">
       <c r="F36" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G36" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G36" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="H36" s="1" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="37" spans="1:12">
@@ -995,31 +991,30 @@
       </c>
     </row>
     <row r="42" spans="1:12"/>
-    <row r="43" spans="1:12">
-      <c r="E43" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
+    <row r="43" spans="1:12"/>
     <row r="44" spans="1:12"/>
     <row r="45" spans="1:12"/>
     <row r="46" spans="1:12">
       <c r="F46" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I46" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G46" s="1" t="s">
+      <c r="J46" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H46" s="1" t="s">
+      <c r="K46" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="I46" s="1" t="s">
+      <c r="L46" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="J46" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="K46" s="1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="47" spans="1:12">
@@ -1041,6 +1036,9 @@
       <c r="K47" t="n">
         <v>0</v>
       </c>
+      <c r="L47" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="48" spans="1:12">
       <c r="F48" s="1" t="s">
@@ -1061,6 +1059,9 @@
       <c r="K48" t="n">
         <v>0</v>
       </c>
+      <c r="L48" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="49" spans="1:12">
       <c r="F49" s="1" t="s">
@@ -1081,6 +1082,9 @@
       <c r="K49" t="n">
         <v>0</v>
       </c>
+      <c r="L49" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="50" spans="1:12">
       <c r="F50" s="1" t="s">
@@ -1101,6 +1105,9 @@
       <c r="K50" t="n">
         <v>0</v>
       </c>
+      <c r="L50" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="51" spans="1:12">
       <c r="F51" s="1" t="s">
@@ -1119,6 +1126,9 @@
         <v>0</v>
       </c>
       <c r="K51" t="n">
+        <v>0</v>
+      </c>
+      <c r="L51" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1181,4 +1191,225 @@
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <cols>
+    <col customWidth="1" max="1" min="1" width="2.4"/>
+    <col customWidth="1" max="2" min="2" width="2.4"/>
+    <col customWidth="1" max="3" min="3" width="2.4"/>
+    <col customWidth="1" max="4" min="4" width="2.4"/>
+    <col customWidth="1" max="5" min="5" width="34.8"/>
+    <col customWidth="1" max="6" min="6" width="21.6"/>
+    <col customWidth="1" max="7" min="7" width="26.4"/>
+    <col customWidth="1" max="8" min="8" width="12"/>
+    <col customWidth="1" max="9" min="9" width="12"/>
+    <col customWidth="1" max="10" min="10" width="12"/>
+    <col customWidth="1" max="11" min="11" width="12"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="G1" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11"/>
+    <row r="3" spans="1:11">
+      <c r="E3" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11"/>
+    <row r="5" spans="1:11"/>
+    <row r="6" spans="1:11">
+      <c r="F6" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="F7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="F8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="F9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="F10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="F11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11"/>
+    <row r="13" spans="1:11">
+      <c r="E13" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11"/>
+    <row r="15" spans="1:11"/>
+    <row r="16" spans="1:11">
+      <c r="F16" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="F17" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="F18" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="F19" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="F20" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="F21" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
 </file>
--- a/module classe projet/ModulePrincipal/Parametres.xlsx
+++ b/module classe projet/ModulePrincipal/Parametres.xlsx
@@ -1,21 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adam\Documents\GitHub\CFGPlateforme\module classe projet\ModulePrincipal\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{1704A7CA-589A-4208-BCE5-771F17894A91}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="9660" windowWidth="16095" xWindow="240" yWindow="15"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Int couts" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Mar couts" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Int couts" sheetId="1" r:id="rId1"/>
+    <sheet name="Mar couts" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="32">
   <si>
     <t xml:space="preserve">Prestation de cours </t>
   </si>
@@ -116,44 +122,46 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <b val="1"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="16"/>
       <name val="Calibri"/>
-      <b val="1"/>
-      <sz val="16"/>
+      <family val="2"/>
     </font>
     <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <b val="1"/>
-      <i val="1"/>
-      <sz val="11"/>
+      <family val="2"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <i val="1"/>
-      <sz val="11"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -184,21 +192,30 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -486,47 +503,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:L61"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="E1:L61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="2.4"/>
-    <col customWidth="1" max="2" min="2" width="2.4"/>
-    <col customWidth="1" max="3" min="3" width="2.4"/>
-    <col customWidth="1" max="4" min="4" width="2.4"/>
-    <col customWidth="1" max="5" min="5" width="34.8"/>
-    <col customWidth="1" max="6" min="6" width="55.2"/>
-    <col customWidth="1" max="7" min="7" width="26.4"/>
-    <col customWidth="1" max="8" min="8" width="12"/>
-    <col customWidth="1" max="9" min="9" width="12"/>
-    <col customWidth="1" max="10" min="10" width="12"/>
-    <col customWidth="1" max="11" min="11" width="12"/>
-    <col customWidth="1" max="12" min="12" width="10.8"/>
+    <col min="1" max="4" width="2.42578125" customWidth="1"/>
+    <col min="5" max="5" width="34.85546875" customWidth="1"/>
+    <col min="6" max="6" width="55.140625" customWidth="1"/>
+    <col min="7" max="7" width="26.42578125" customWidth="1"/>
+    <col min="8" max="11" width="12" customWidth="1"/>
+    <col min="12" max="12" width="10.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="5:11" ht="21" x14ac:dyDescent="0.35">
       <c r="G1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:12"/>
-    <row r="3" spans="1:12">
+    <row r="3" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E3" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12"/>
-    <row r="5" spans="1:12"/>
-    <row r="6" spans="1:12">
+    <row r="6" spans="5:11" x14ac:dyDescent="0.25">
       <c r="F6" s="4" t="s">
         <v>2</v>
       </c>
@@ -534,55 +536,52 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="5:11" x14ac:dyDescent="0.25">
       <c r="F7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+      <c r="G7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="5:11" x14ac:dyDescent="0.25">
       <c r="F8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="G8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="5:11" x14ac:dyDescent="0.25">
       <c r="F9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+      <c r="G9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="5:11" x14ac:dyDescent="0.25">
       <c r="F10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+      <c r="G10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="5:11" x14ac:dyDescent="0.25">
       <c r="F11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12"/>
-    <row r="13" spans="1:12">
+      <c r="G11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E13" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:12"/>
-    <row r="15" spans="1:12"/>
-    <row r="16" spans="1:12">
+    <row r="16" spans="5:11" x14ac:dyDescent="0.25">
       <c r="F16" s="4" t="s">
         <v>10</v>
       </c>
@@ -602,115 +601,112 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="5:12" x14ac:dyDescent="0.25">
       <c r="F17" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G17" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="5:12" x14ac:dyDescent="0.25">
       <c r="F18" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G18" t="n">
-        <v>0</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="5:12" x14ac:dyDescent="0.25">
       <c r="F19" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G19" t="n">
-        <v>0</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="5:12" x14ac:dyDescent="0.25">
       <c r="F20" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G20" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="5:12" x14ac:dyDescent="0.25">
       <c r="F21" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G21" t="n">
-        <v>0</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12"/>
-    <row r="23" spans="1:12">
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E23" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="1:12"/>
-    <row r="25" spans="1:12"/>
-    <row r="26" spans="1:12">
+    <row r="26" spans="5:12" x14ac:dyDescent="0.25">
       <c r="F26" s="4" t="s">
         <v>17</v>
       </c>
@@ -733,126 +729,122 @@
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="5:12" x14ac:dyDescent="0.25">
       <c r="F27" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G27" t="n">
-        <v>0</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" t="n">
-        <v>0</v>
-      </c>
-      <c r="K27" t="n">
-        <v>0</v>
-      </c>
-      <c r="L27" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12">
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="5:12" x14ac:dyDescent="0.25">
       <c r="F28" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G28" t="n">
-        <v>0</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0</v>
-      </c>
-      <c r="L28" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12">
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="5:12" x14ac:dyDescent="0.25">
       <c r="F29" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G29" t="n">
-        <v>0</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12">
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="5:12" x14ac:dyDescent="0.25">
       <c r="F30" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G30" t="n">
-        <v>0</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>0</v>
-      </c>
-      <c r="K30" t="n">
-        <v>0</v>
-      </c>
-      <c r="L30" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12">
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="5:12" x14ac:dyDescent="0.25">
       <c r="F31" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G31" t="n">
-        <v>0</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0</v>
-      </c>
-      <c r="L31" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12"/>
-    <row r="33" spans="1:12"/>
-    <row r="34" spans="1:12"/>
-    <row r="35" spans="1:12"/>
-    <row r="36" spans="1:12">
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F36" s="4" t="s">
         <v>24</v>
       </c>
@@ -875,126 +867,122 @@
         <v>23</v>
       </c>
     </row>
-    <row r="37" spans="1:12">
+    <row r="37" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F37" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G37" t="n">
-        <v>0</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0</v>
-      </c>
-      <c r="L37" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12">
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F38" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G38" t="n">
-        <v>0</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0</v>
-      </c>
-      <c r="L38" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12">
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+      <c r="K38">
+        <v>0</v>
+      </c>
+      <c r="L38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F39" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G39" t="n">
-        <v>0</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>0</v>
-      </c>
-      <c r="K39" t="n">
-        <v>0</v>
-      </c>
-      <c r="L39" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12">
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
+      </c>
+      <c r="K39">
+        <v>0</v>
+      </c>
+      <c r="L39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F40" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G40" t="n">
-        <v>0</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0</v>
-      </c>
-      <c r="L40" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12">
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="K40">
+        <v>0</v>
+      </c>
+      <c r="L40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F41" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G41" t="n">
-        <v>0</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0</v>
-      </c>
-      <c r="L41" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12"/>
-    <row r="43" spans="1:12"/>
-    <row r="44" spans="1:12"/>
-    <row r="45" spans="1:12"/>
-    <row r="46" spans="1:12">
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+      <c r="K41">
+        <v>0</v>
+      </c>
+      <c r="L41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F46" s="4" t="s">
         <v>25</v>
       </c>
@@ -1017,130 +1005,127 @@
         <v>23</v>
       </c>
     </row>
-    <row r="47" spans="1:12">
+    <row r="47" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F47" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G47" t="n">
-        <v>0</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
-      <c r="J47" t="n">
-        <v>0</v>
-      </c>
-      <c r="K47" t="n">
-        <v>0</v>
-      </c>
-      <c r="L47" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12">
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <v>0</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>0</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F48" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G48" t="n">
-        <v>0</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
-      <c r="J48" t="n">
-        <v>0</v>
-      </c>
-      <c r="K48" t="n">
-        <v>0</v>
-      </c>
-      <c r="L48" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12">
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <v>0</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="5:12" x14ac:dyDescent="0.25">
       <c r="F49" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G49" t="n">
-        <v>0</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>0</v>
-      </c>
-      <c r="K49" t="n">
-        <v>0</v>
-      </c>
-      <c r="L49" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12">
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="5:12" x14ac:dyDescent="0.25">
       <c r="F50" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G50" t="n">
-        <v>0</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
-      <c r="J50" t="n">
-        <v>0</v>
-      </c>
-      <c r="K50" t="n">
-        <v>0</v>
-      </c>
-      <c r="L50" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12">
+      <c r="G50">
+        <v>0</v>
+      </c>
+      <c r="H50">
+        <v>0</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>0</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="5:12" x14ac:dyDescent="0.25">
       <c r="F51" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G51" t="n">
-        <v>0</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>0</v>
-      </c>
-      <c r="K51" t="n">
-        <v>0</v>
-      </c>
-      <c r="L51" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12"/>
-    <row r="53" spans="1:12">
+      <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="H51">
+        <v>0</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>0</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E53" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="54" spans="1:12"/>
-    <row r="55" spans="1:12"/>
-    <row r="56" spans="1:12">
+    <row r="56" spans="5:12" x14ac:dyDescent="0.25">
       <c r="F56" s="4" t="s">
         <v>27</v>
       </c>
@@ -1148,92 +1133,79 @@
         <v>28</v>
       </c>
     </row>
-    <row r="57" spans="1:12">
+    <row r="57" spans="5:12" x14ac:dyDescent="0.25">
       <c r="F57" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G57" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12">
+      <c r="G57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="5:12" x14ac:dyDescent="0.25">
       <c r="F58" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G58" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12">
+      <c r="G58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="5:12" x14ac:dyDescent="0.25">
       <c r="F59" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G59" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12">
+      <c r="G59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="5:12" x14ac:dyDescent="0.25">
       <c r="F60" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G60" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12">
+      <c r="G60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="5:12" x14ac:dyDescent="0.25">
       <c r="F61" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G61" t="n">
+      <c r="G61">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:K21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="E1:K21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17:G21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="2.4"/>
-    <col customWidth="1" max="2" min="2" width="2.4"/>
-    <col customWidth="1" max="3" min="3" width="2.4"/>
-    <col customWidth="1" max="4" min="4" width="2.4"/>
-    <col customWidth="1" max="5" min="5" width="34.8"/>
-    <col customWidth="1" max="6" min="6" width="21.6"/>
-    <col customWidth="1" max="7" min="7" width="26.4"/>
-    <col customWidth="1" max="8" min="8" width="12"/>
-    <col customWidth="1" max="9" min="9" width="12"/>
-    <col customWidth="1" max="10" min="10" width="12"/>
-    <col customWidth="1" max="11" min="11" width="12"/>
+    <col min="1" max="4" width="2.42578125" customWidth="1"/>
+    <col min="5" max="5" width="34.85546875" customWidth="1"/>
+    <col min="6" max="6" width="21.5703125" customWidth="1"/>
+    <col min="7" max="7" width="26.42578125" customWidth="1"/>
+    <col min="8" max="11" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="5:11" ht="21" x14ac:dyDescent="0.35">
       <c r="G1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:11"/>
-    <row r="3" spans="1:11">
+    <row r="3" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E3" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:11"/>
-    <row r="5" spans="1:11"/>
-    <row r="6" spans="1:11">
+    <row r="6" spans="5:11" x14ac:dyDescent="0.25">
       <c r="F6" s="4" t="s">
         <v>29</v>
       </c>
@@ -1253,115 +1225,112 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="5:11" x14ac:dyDescent="0.25">
       <c r="F7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>2</v>
+      </c>
+      <c r="I7">
+        <v>3</v>
+      </c>
+      <c r="J7">
+        <v>4</v>
+      </c>
+      <c r="K7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="5:11" x14ac:dyDescent="0.25">
       <c r="F8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
+      <c r="G8">
+        <v>6</v>
+      </c>
+      <c r="H8">
+        <v>7</v>
+      </c>
+      <c r="I8">
+        <v>8</v>
+      </c>
+      <c r="J8">
+        <v>9</v>
+      </c>
+      <c r="K8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="5:11" x14ac:dyDescent="0.25">
       <c r="F9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
+      <c r="G9">
+        <v>11</v>
+      </c>
+      <c r="H9">
+        <v>12</v>
+      </c>
+      <c r="I9">
+        <v>13</v>
+      </c>
+      <c r="J9">
+        <v>14</v>
+      </c>
+      <c r="K9">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="5:11" x14ac:dyDescent="0.25">
       <c r="F10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
+      <c r="G10">
+        <v>16</v>
+      </c>
+      <c r="H10">
+        <v>17</v>
+      </c>
+      <c r="I10">
+        <v>18</v>
+      </c>
+      <c r="J10">
+        <v>19</v>
+      </c>
+      <c r="K10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="5:11" x14ac:dyDescent="0.25">
       <c r="F11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11"/>
-    <row r="13" spans="1:11">
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E13" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:11"/>
-    <row r="15" spans="1:11"/>
-    <row r="16" spans="1:11">
+    <row r="16" spans="5:11" x14ac:dyDescent="0.25">
       <c r="F16" s="4" t="s">
         <v>30</v>
       </c>
@@ -1369,47 +1338,47 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F17" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G17" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11">
+      <c r="G17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F18" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G18" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11">
+      <c r="G18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F19" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G19" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11">
+      <c r="G19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F20" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G20" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11">
+      <c r="G20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F21" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G21" t="n">
-        <v>0</v>
+      <c r="G21">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/module classe projet/ModulePrincipal/Parametres.xlsx
+++ b/module classe projet/ModulePrincipal/Parametres.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adam\Documents\GitHub\CFGPlateforme\module classe projet\ModulePrincipal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{1704A7CA-589A-4208-BCE5-771F17894A91}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{C81F46D4-4B54-45B8-81C9-30FABB135BB2}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -50,6 +50,45 @@
     <t>Horizon=4</t>
   </si>
   <si>
+    <t>Cout d'energie, électricité</t>
+  </si>
+  <si>
+    <t>Nombre de postes de consommation électriques</t>
+  </si>
+  <si>
+    <t>Poste=0</t>
+  </si>
+  <si>
+    <t>Poste=1</t>
+  </si>
+  <si>
+    <t>Poste=2</t>
+  </si>
+  <si>
+    <t>Poste=3</t>
+  </si>
+  <si>
+    <t>Poste=4</t>
+  </si>
+  <si>
+    <t>Poste=5</t>
+  </si>
+  <si>
+    <t>Consommation Electrique par poste ( Kwh )</t>
+  </si>
+  <si>
+    <t>Consommation Electrique par poste ( MAD )</t>
+  </si>
+  <si>
+    <t>Cout d'entretien</t>
+  </si>
+  <si>
+    <t>Maintenance (MAD)</t>
+  </si>
+  <si>
+    <t>Cout Maintenance=0</t>
+  </si>
+  <si>
     <t>Cout de location, espace</t>
   </si>
   <si>
@@ -71,52 +110,13 @@
     <t>Espace=4</t>
   </si>
   <si>
-    <t>Cout d'energie, électricité</t>
-  </si>
-  <si>
-    <t>Nombre de postes de consommation électriques</t>
-  </si>
-  <si>
-    <t>Poste=0</t>
-  </si>
-  <si>
-    <t>Poste=1</t>
-  </si>
-  <si>
-    <t>Poste=2</t>
-  </si>
-  <si>
-    <t>Poste=3</t>
-  </si>
-  <si>
-    <t>Poste=4</t>
-  </si>
-  <si>
-    <t>Poste=5</t>
-  </si>
-  <si>
-    <t>Consommation Electrique par poste ( Kwh )</t>
-  </si>
-  <si>
-    <t>Consommation Electrique par poste ( MAD )</t>
-  </si>
-  <si>
-    <t>Cout d'entretien</t>
-  </si>
-  <si>
-    <t>Maintenance (MAD)</t>
-  </si>
-  <si>
-    <t>Cout Maintenance=0</t>
+    <t>Prix du Kwh</t>
+  </si>
+  <si>
+    <t>Cout Kwh=0</t>
   </si>
   <si>
     <t>Prix de Location</t>
-  </si>
-  <si>
-    <t>Prix du Kwh</t>
-  </si>
-  <si>
-    <t>Cout Kwh=0</t>
   </si>
 </sst>
 </file>
@@ -143,20 +143,17 @@
       <b/>
       <sz val="16"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
       <i/>
       <sz val="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <i/>
       <sz val="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -506,7 +503,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="E1:L61"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="K61" sqref="K61"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -518,17 +517,17 @@
     <col min="12" max="12" width="10.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="5:11" ht="21" x14ac:dyDescent="0.35">
+    <row r="1" spans="5:12" ht="21" x14ac:dyDescent="0.35">
       <c r="G1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E3" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="5:12" x14ac:dyDescent="0.25">
       <c r="F6" s="4" t="s">
         <v>2</v>
       </c>
@@ -536,7 +535,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="5:12" x14ac:dyDescent="0.25">
       <c r="F7" s="1" t="s">
         <v>4</v>
       </c>
@@ -544,7 +543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="5:12" x14ac:dyDescent="0.25">
       <c r="F8" s="1" t="s">
         <v>5</v>
       </c>
@@ -552,7 +551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="5:12" x14ac:dyDescent="0.25">
       <c r="F9" s="1" t="s">
         <v>6</v>
       </c>
@@ -560,7 +559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="5:12" x14ac:dyDescent="0.25">
       <c r="F10" s="1" t="s">
         <v>7</v>
       </c>
@@ -568,7 +567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="5:12" x14ac:dyDescent="0.25">
       <c r="F11" s="1" t="s">
         <v>8</v>
       </c>
@@ -576,12 +575,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E13" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="5:12" x14ac:dyDescent="0.25">
       <c r="F16" s="4" t="s">
         <v>10</v>
       </c>
@@ -600,8 +599,11 @@
       <c r="K16" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="L16" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F17" s="1" t="s">
         <v>4</v>
       </c>
@@ -620,8 +622,11 @@
       <c r="K17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="L17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F18" s="1" t="s">
         <v>5</v>
       </c>
@@ -640,8 +645,11 @@
       <c r="K18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="L18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F19" s="1" t="s">
         <v>6</v>
       </c>
@@ -660,8 +668,11 @@
       <c r="K19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="L19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F20" s="1" t="s">
         <v>7</v>
       </c>
@@ -680,8 +691,11 @@
       <c r="K20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="L20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F21" s="1" t="s">
         <v>8</v>
       </c>
@@ -700,36 +714,34 @@
       <c r="K21">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E23" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="26" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="L21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F26" s="4" t="s">
         <v>17</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="27" spans="5:12" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F27" s="1" t="s">
         <v>4</v>
       </c>
@@ -752,7 +764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F28" s="1" t="s">
         <v>5</v>
       </c>
@@ -775,7 +787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F29" s="1" t="s">
         <v>6</v>
       </c>
@@ -798,7 +810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F30" s="1" t="s">
         <v>7</v>
       </c>
@@ -821,7 +833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F31" s="1" t="s">
         <v>8</v>
       </c>
@@ -844,30 +856,30 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="6:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="5:12" x14ac:dyDescent="0.25">
       <c r="F36" s="4" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="37" spans="6:12" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="37" spans="5:12" x14ac:dyDescent="0.25">
       <c r="F37" s="1" t="s">
         <v>4</v>
       </c>
@@ -890,7 +902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="6:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="5:12" x14ac:dyDescent="0.25">
       <c r="F38" s="1" t="s">
         <v>5</v>
       </c>
@@ -913,7 +925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="6:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="5:12" x14ac:dyDescent="0.25">
       <c r="F39" s="1" t="s">
         <v>6</v>
       </c>
@@ -936,7 +948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="6:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="5:12" x14ac:dyDescent="0.25">
       <c r="F40" s="1" t="s">
         <v>7</v>
       </c>
@@ -959,7 +971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="6:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="5:12" x14ac:dyDescent="0.25">
       <c r="F41" s="1" t="s">
         <v>8</v>
       </c>
@@ -982,195 +994,182 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="6:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E43" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="46" spans="5:12" x14ac:dyDescent="0.25">
       <c r="F46" s="4" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H46" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I46" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J46" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K46" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="L46" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="47" spans="6:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="5:12" x14ac:dyDescent="0.25">
       <c r="F47" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G47">
         <v>0</v>
       </c>
-      <c r="H47">
-        <v>0</v>
-      </c>
-      <c r="I47">
-        <v>0</v>
-      </c>
-      <c r="J47">
-        <v>0</v>
-      </c>
-      <c r="K47">
-        <v>0</v>
-      </c>
-      <c r="L47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="6:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="5:12" x14ac:dyDescent="0.25">
       <c r="F48" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G48">
         <v>0</v>
       </c>
-      <c r="H48">
-        <v>0</v>
-      </c>
-      <c r="I48">
-        <v>0</v>
-      </c>
-      <c r="J48">
-        <v>0</v>
-      </c>
-      <c r="K48">
-        <v>0</v>
-      </c>
-      <c r="L48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="5:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="5:11" x14ac:dyDescent="0.25">
       <c r="F49" s="1" t="s">
         <v>6</v>
       </c>
       <c r="G49">
         <v>0</v>
       </c>
-      <c r="H49">
-        <v>0</v>
-      </c>
-      <c r="I49">
-        <v>0</v>
-      </c>
-      <c r="J49">
-        <v>0</v>
-      </c>
-      <c r="K49">
-        <v>0</v>
-      </c>
-      <c r="L49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="5:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="5:11" x14ac:dyDescent="0.25">
       <c r="F50" s="1" t="s">
         <v>7</v>
       </c>
       <c r="G50">
         <v>0</v>
       </c>
-      <c r="H50">
-        <v>0</v>
-      </c>
-      <c r="I50">
-        <v>0</v>
-      </c>
-      <c r="J50">
-        <v>0</v>
-      </c>
-      <c r="K50">
-        <v>0</v>
-      </c>
-      <c r="L50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="5:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="5:11" x14ac:dyDescent="0.25">
       <c r="F51" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G51">
         <v>0</v>
       </c>
-      <c r="H51">
-        <v>0</v>
-      </c>
-      <c r="I51">
-        <v>0</v>
-      </c>
-      <c r="J51">
-        <v>0</v>
-      </c>
-      <c r="K51">
-        <v>0</v>
-      </c>
-      <c r="L51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="5:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E53" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="56" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="F56" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I56" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="56" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="F56" s="4" t="s">
+      <c r="J56" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G56" s="1" t="s">
+      <c r="K56" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="57" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="57" spans="5:11" x14ac:dyDescent="0.25">
       <c r="F57" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="5:12" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="5:11" x14ac:dyDescent="0.25">
       <c r="F58" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G58">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="H58">
+        <v>1</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>0</v>
+      </c>
+      <c r="K58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="5:11" x14ac:dyDescent="0.25">
       <c r="F59" s="1" t="s">
         <v>6</v>
       </c>
       <c r="G59">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="H59">
+        <v>0</v>
+      </c>
+      <c r="I59">
+        <v>1</v>
+      </c>
+      <c r="J59">
+        <v>0</v>
+      </c>
+      <c r="K59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="5:11" x14ac:dyDescent="0.25">
       <c r="F60" s="1" t="s">
         <v>7</v>
       </c>
       <c r="G60">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="H60">
+        <v>0</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>1</v>
+      </c>
+      <c r="K60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="5:11" x14ac:dyDescent="0.25">
       <c r="F61" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G61">
         <v>0</v>
+      </c>
+      <c r="H61">
+        <v>0</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <v>0</v>
+      </c>
+      <c r="K61">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1183,7 +1182,7 @@
   <dimension ref="E1:K21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17:G21"/>
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1210,19 +1209,7 @@
         <v>29</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="5:11" x14ac:dyDescent="0.25">
@@ -1230,19 +1217,7 @@
         <v>4</v>
       </c>
       <c r="G7">
-        <v>1</v>
-      </c>
-      <c r="H7">
-        <v>2</v>
-      </c>
-      <c r="I7">
-        <v>3</v>
-      </c>
-      <c r="J7">
-        <v>4</v>
-      </c>
-      <c r="K7">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="5:11" x14ac:dyDescent="0.25">
@@ -1250,19 +1225,7 @@
         <v>5</v>
       </c>
       <c r="G8">
-        <v>6</v>
-      </c>
-      <c r="H8">
-        <v>7</v>
-      </c>
-      <c r="I8">
-        <v>8</v>
-      </c>
-      <c r="J8">
-        <v>9</v>
-      </c>
-      <c r="K8">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="5:11" x14ac:dyDescent="0.25">
@@ -1270,19 +1233,7 @@
         <v>6</v>
       </c>
       <c r="G9">
-        <v>11</v>
-      </c>
-      <c r="H9">
-        <v>12</v>
-      </c>
-      <c r="I9">
-        <v>13</v>
-      </c>
-      <c r="J9">
-        <v>14</v>
-      </c>
-      <c r="K9">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="5:11" x14ac:dyDescent="0.25">
@@ -1290,19 +1241,7 @@
         <v>7</v>
       </c>
       <c r="G10">
-        <v>16</v>
-      </c>
-      <c r="H10">
-        <v>17</v>
-      </c>
-      <c r="I10">
-        <v>18</v>
-      </c>
-      <c r="J10">
-        <v>19</v>
-      </c>
-      <c r="K10">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="5:11" x14ac:dyDescent="0.25">
@@ -1312,70 +1251,130 @@
       <c r="G11">
         <v>0</v>
       </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-      <c r="K11">
-        <v>0</v>
-      </c>
     </row>
     <row r="13" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E13" s="3" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="5:11" x14ac:dyDescent="0.25">
       <c r="F16" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" spans="6:7" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F17" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G17">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="6:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F18" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G18">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="6:7" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F19" s="1" t="s">
         <v>6</v>
       </c>
       <c r="G19">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="6:7" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F20" s="1" t="s">
         <v>7</v>
       </c>
       <c r="G20">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="6:7" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>1</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F21" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G21">
-        <v>5</v>
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/module classe projet/ModulePrincipal/Parametres.xlsx
+++ b/module classe projet/ModulePrincipal/Parametres.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="9660" windowWidth="16095" xWindow="240" yWindow="15"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Int couts" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Mar couts" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Int couts" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Mar couts" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -15,18 +15,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="31">
-  <si>
-    <t xml:space="preserve">Prestation de cours </t>
-  </si>
-  <si>
-    <t>Couts d'assurance</t>
-  </si>
-  <si>
-    <t>Autres assurances (MAD)</t>
-  </si>
-  <si>
-    <t>Cout Assurances=0</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="26">
+  <si>
+    <t>Prestation de soins médicaux</t>
+  </si>
+  <si>
+    <t>Cout d'entretien</t>
+  </si>
+  <si>
+    <t>Maintenance (MAD)</t>
+  </si>
+  <si>
+    <t>Cout Maintenance=0</t>
   </si>
   <si>
     <t>Horizon=0</t>
@@ -44,70 +44,55 @@
     <t>Horizon=4</t>
   </si>
   <si>
-    <t>Cout d'entretien</t>
-  </si>
-  <si>
-    <t>Maintenance (MAD)</t>
-  </si>
-  <si>
-    <t>Cout Maintenance=0</t>
-  </si>
-  <si>
-    <t>Cout de location, espace</t>
-  </si>
-  <si>
-    <t>Nombre espaces loués</t>
-  </si>
-  <si>
-    <t>Espace=0</t>
-  </si>
-  <si>
-    <t>Espace=1</t>
-  </si>
-  <si>
-    <t>Espace=2</t>
-  </si>
-  <si>
-    <t>Espace=3</t>
-  </si>
-  <si>
-    <t>Espace=4</t>
-  </si>
-  <si>
-    <t>Cout d'energie, électricité</t>
-  </si>
-  <si>
-    <t>Nombre de postes de consommation électriques</t>
-  </si>
-  <si>
-    <t>Poste=0</t>
-  </si>
-  <si>
-    <t>Poste=1</t>
-  </si>
-  <si>
-    <t>Poste=2</t>
-  </si>
-  <si>
-    <t>Poste=3</t>
-  </si>
-  <si>
-    <t>Poste=4</t>
-  </si>
-  <si>
-    <t>Poste=5</t>
-  </si>
-  <si>
-    <t>Consommation Electrique par poste ( Kwh )</t>
-  </si>
-  <si>
-    <t>Prix de Location</t>
-  </si>
-  <si>
-    <t>Prix du Kwh</t>
-  </si>
-  <si>
-    <t>Cout Kwh=0</t>
+    <t>Cout RH</t>
+  </si>
+  <si>
+    <t>Nombre Ressources Humaines</t>
+  </si>
+  <si>
+    <t>Type Rh=0</t>
+  </si>
+  <si>
+    <t>Type Rh=1</t>
+  </si>
+  <si>
+    <t>Type Rh=2</t>
+  </si>
+  <si>
+    <t>Type Rh=3</t>
+  </si>
+  <si>
+    <t>Type Rh=4</t>
+  </si>
+  <si>
+    <t>Cout des consommables de santé</t>
+  </si>
+  <si>
+    <t>Nombre Consommable santé</t>
+  </si>
+  <si>
+    <t>Conso=0</t>
+  </si>
+  <si>
+    <t>Conso=1</t>
+  </si>
+  <si>
+    <t>Conso=2</t>
+  </si>
+  <si>
+    <t>Conso=3</t>
+  </si>
+  <si>
+    <t>Conso=4</t>
+  </si>
+  <si>
+    <t>Conso=5</t>
+  </si>
+  <si>
+    <t>Salaire Ressources Humaines</t>
+  </si>
+  <si>
+    <t>Prix consommable santé</t>
   </si>
 </sst>
 </file>
@@ -488,7 +473,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L51"/>
+  <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -500,13 +485,13 @@
     <col customWidth="1" max="2" min="2" width="2.4"/>
     <col customWidth="1" max="3" min="3" width="2.4"/>
     <col customWidth="1" max="4" min="4" width="2.4"/>
-    <col customWidth="1" max="5" min="5" width="34.8"/>
-    <col customWidth="1" max="6" min="6" width="55.2"/>
-    <col customWidth="1" max="7" min="7" width="26.4"/>
-    <col customWidth="1" max="8" min="8" width="12"/>
-    <col customWidth="1" max="9" min="9" width="12"/>
-    <col customWidth="1" max="10" min="10" width="12"/>
-    <col customWidth="1" max="11" min="11" width="12"/>
+    <col customWidth="1" max="5" min="5" width="38.4"/>
+    <col customWidth="1" max="6" min="6" width="33.6"/>
+    <col customWidth="1" max="7" min="7" width="36"/>
+    <col customWidth="1" max="8" min="8" width="13.2"/>
+    <col customWidth="1" max="9" min="9" width="13.2"/>
+    <col customWidth="1" max="10" min="10" width="13.2"/>
+    <col customWidth="1" max="11" min="11" width="13.2"/>
     <col customWidth="1" max="12" min="12" width="10.8"/>
   </cols>
   <sheetData>
@@ -586,6 +571,18 @@
       <c r="G16" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="H16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="17" spans="1:12">
       <c r="F17" s="1" t="s">
@@ -594,6 +591,18 @@
       <c r="G17" t="n">
         <v>0</v>
       </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18" spans="1:12">
       <c r="F18" s="1" t="s">
@@ -602,6 +611,18 @@
       <c r="G18" t="n">
         <v>0</v>
       </c>
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19" spans="1:12">
       <c r="F19" s="1" t="s">
@@ -610,6 +631,18 @@
       <c r="G19" t="n">
         <v>0</v>
       </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20" spans="1:12">
       <c r="F20" s="1" t="s">
@@ -618,6 +651,18 @@
       <c r="G20" t="n">
         <v>0</v>
       </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21" spans="1:12">
       <c r="F21" s="1" t="s">
@@ -626,33 +671,48 @@
       <c r="G21" t="n">
         <v>0</v>
       </c>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22" spans="1:12"/>
     <row r="23" spans="1:12">
       <c r="E23" s="3" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" spans="1:12"/>
     <row r="25" spans="1:12"/>
     <row r="26" spans="1:12">
       <c r="F26" s="4" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -674,6 +734,9 @@
       <c r="K27" t="n">
         <v>0</v>
       </c>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28" spans="1:12">
       <c r="F28" s="1" t="s">
@@ -694,6 +757,9 @@
       <c r="K28" t="n">
         <v>0</v>
       </c>
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29" spans="1:12">
       <c r="F29" s="1" t="s">
@@ -714,6 +780,9 @@
       <c r="K29" t="n">
         <v>0</v>
       </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="30" spans="1:12">
       <c r="F30" s="1" t="s">
@@ -734,6 +803,9 @@
       <c r="K30" t="n">
         <v>0</v>
       </c>
+      <c r="L30" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="31" spans="1:12">
       <c r="F31" s="1" t="s">
@@ -754,292 +826,7 @@
       <c r="K31" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:12"/>
-    <row r="33" spans="1:12">
-      <c r="E33" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12"/>
-    <row r="35" spans="1:12"/>
-    <row r="36" spans="1:12">
-      <c r="F36" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H36" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="I36" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J36" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="K36" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="L36" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12">
-      <c r="F37" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G37" t="n">
-        <v>0</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0</v>
-      </c>
-      <c r="L37" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12">
-      <c r="F38" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G38" t="n">
-        <v>0</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0</v>
-      </c>
-      <c r="L38" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12">
-      <c r="F39" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G39" t="n">
-        <v>0</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>0</v>
-      </c>
-      <c r="K39" t="n">
-        <v>0</v>
-      </c>
-      <c r="L39" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12">
-      <c r="F40" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G40" t="n">
-        <v>0</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0</v>
-      </c>
-      <c r="L40" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12">
-      <c r="F41" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G41" t="n">
-        <v>0</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0</v>
-      </c>
-      <c r="L41" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12"/>
-    <row r="43" spans="1:12"/>
-    <row r="44" spans="1:12"/>
-    <row r="45" spans="1:12"/>
-    <row r="46" spans="1:12">
-      <c r="F46" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G46" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H46" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="I46" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J46" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="K46" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="L46" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12">
-      <c r="F47" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G47" t="n">
-        <v>0</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
-      <c r="J47" t="n">
-        <v>0</v>
-      </c>
-      <c r="K47" t="n">
-        <v>0</v>
-      </c>
-      <c r="L47" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12">
-      <c r="F48" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G48" t="n">
-        <v>0</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
-      <c r="J48" t="n">
-        <v>0</v>
-      </c>
-      <c r="K48" t="n">
-        <v>0</v>
-      </c>
-      <c r="L48" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12">
-      <c r="F49" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G49" t="n">
-        <v>0</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>0</v>
-      </c>
-      <c r="K49" t="n">
-        <v>0</v>
-      </c>
-      <c r="L49" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12">
-      <c r="F50" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G50" t="n">
-        <v>0</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
-      <c r="J50" t="n">
-        <v>0</v>
-      </c>
-      <c r="K50" t="n">
-        <v>0</v>
-      </c>
-      <c r="L50" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12">
-      <c r="F51" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G51" t="n">
-        <v>0</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>0</v>
-      </c>
-      <c r="K51" t="n">
-        <v>0</v>
-      </c>
-      <c r="L51" t="n">
+      <c r="L31" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1054,7 +841,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K21"/>
+  <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1066,49 +853,50 @@
     <col customWidth="1" max="2" min="2" width="2.4"/>
     <col customWidth="1" max="3" min="3" width="2.4"/>
     <col customWidth="1" max="4" min="4" width="2.4"/>
-    <col customWidth="1" max="5" min="5" width="34.8"/>
-    <col customWidth="1" max="6" min="6" width="21.6"/>
-    <col customWidth="1" max="7" min="7" width="26.4"/>
-    <col customWidth="1" max="8" min="8" width="12"/>
-    <col customWidth="1" max="9" min="9" width="12"/>
-    <col customWidth="1" max="10" min="10" width="12"/>
-    <col customWidth="1" max="11" min="11" width="12"/>
+    <col customWidth="1" max="5" min="5" width="38.4"/>
+    <col customWidth="1" max="6" min="6" width="34.8"/>
+    <col customWidth="1" max="7" min="7" width="36"/>
+    <col customWidth="1" max="8" min="8" width="13.2"/>
+    <col customWidth="1" max="9" min="9" width="13.2"/>
+    <col customWidth="1" max="10" min="10" width="13.2"/>
+    <col customWidth="1" max="11" min="11" width="13.2"/>
+    <col customWidth="1" max="12" min="12" width="10.8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:12">
       <c r="G1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:11"/>
-    <row r="3" spans="1:11">
+    <row r="2" spans="1:12"/>
+    <row r="3" spans="1:12">
       <c r="E3" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12"/>
+    <row r="5" spans="1:12"/>
+    <row r="6" spans="1:12">
+      <c r="F6" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="1:11"/>
-    <row r="5" spans="1:11"/>
-    <row r="6" spans="1:11">
-      <c r="F6" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="G6" s="1" t="s">
+      <c r="I6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="K6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
+    </row>
+    <row r="7" spans="1:12">
       <c r="F7" s="1" t="s">
         <v>4</v>
       </c>
@@ -1128,7 +916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:12">
       <c r="F8" s="1" t="s">
         <v>5</v>
       </c>
@@ -1148,7 +936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:12">
       <c r="F9" s="1" t="s">
         <v>6</v>
       </c>
@@ -1168,7 +956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:12">
       <c r="F10" s="1" t="s">
         <v>7</v>
       </c>
@@ -1188,7 +976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:12">
       <c r="F11" s="1" t="s">
         <v>8</v>
       </c>
@@ -1208,59 +996,149 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11"/>
-    <row r="13" spans="1:11">
+    <row r="12" spans="1:12"/>
+    <row r="13" spans="1:12">
       <c r="E13" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12"/>
+    <row r="15" spans="1:12"/>
+    <row r="16" spans="1:12">
+      <c r="F16" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H16" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="14" spans="1:11"/>
-    <row r="15" spans="1:11"/>
-    <row r="16" spans="1:11">
-      <c r="F16" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11">
+      <c r="I16" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
       <c r="F17" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:11">
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
       <c r="F18" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:11">
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
       <c r="F19" s="1" t="s">
         <v>6</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:11">
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
       <c r="F20" s="1" t="s">
         <v>7</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:11">
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
       <c r="F21" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
         <v>0</v>
       </c>
     </row>
